--- a/data/outputs/management_elsevier/42.xlsx
+++ b/data/outputs/management_elsevier/42.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS245"/>
+  <dimension ref="A1:BU245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -915,6 +925,12 @@
           <t>2-s2.0-84964412530</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>163</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1156,6 +1172,12 @@
           <t>2-s2.0-84941701960</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>898</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1399,6 +1421,12 @@
           <t>2-s2.0-84964541179</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>2927</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1627,6 +1655,12 @@
         <is>
           <t>2-s2.0-84940874597</t>
         </is>
+      </c>
+      <c r="BT5" t="n">
+        <v>493</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1853,6 +1887,12 @@
           <t>2-s2.0-84940707393</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>967</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2086,6 +2126,12 @@
           <t>2-s2.0-84937927902</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>1377</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2327,6 +2373,12 @@
           <t>2-s2.0-84938150062</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>1822</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2559,6 +2611,12 @@
         <is>
           <t>2-s2.0-84938149472</t>
         </is>
+      </c>
+      <c r="BT9" t="n">
+        <v>1348</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -2785,6 +2843,12 @@
           <t>2-s2.0-84933573949</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>1167</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3026,6 +3090,12 @@
           <t>2-s2.0-84931045757</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>531</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3266,6 +3336,12 @@
         <is>
           <t>2-s2.0-84929180057</t>
         </is>
+      </c>
+      <c r="BT12" t="n">
+        <v>1483</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -3492,6 +3568,12 @@
           <t>2-s2.0-84927145843</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>1057</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3717,6 +3799,12 @@
           <t>2-s2.0-84927139347</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>1527</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3949,6 +4037,12 @@
         <is>
           <t>2-s2.0-84926041601</t>
         </is>
+      </c>
+      <c r="BT15" t="n">
+        <v>1016</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -4175,6 +4269,12 @@
           <t>2-s2.0-84949624534</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>1850</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4400,6 +4500,12 @@
           <t>2-s2.0-84949318160</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>584</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4630,6 +4736,12 @@
         <is>
           <t>2-s2.0-84949730626</t>
         </is>
+      </c>
+      <c r="BT18" t="n">
+        <v>537</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -4844,6 +4956,12 @@
           <t>2-s2.0-84949625919</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>376</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5073,6 +5191,12 @@
           <t>2-s2.0-84949563729</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>776</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5300,6 +5424,12 @@
           <t>2-s2.0-84949623291</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>647</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5531,6 +5661,12 @@
           <t>2-s2.0-84949316763</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>1418</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5756,6 +5892,12 @@
           <t>2-s2.0-84949624224</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>814</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5987,6 +6129,12 @@
           <t>2-s2.0-84949627112</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>1159</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6216,6 +6364,12 @@
           <t>2-s2.0-84938852408</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>1334</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6457,6 +6611,12 @@
           <t>2-s2.0-84938651349</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>1110</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6698,6 +6858,12 @@
           <t>2-s2.0-84937857647</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>1581</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6927,6 +7093,12 @@
           <t>2-s2.0-84937510810</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>977</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7168,6 +7340,12 @@
           <t>2-s2.0-84930704402</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>640</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7400,6 +7578,12 @@
         <is>
           <t>2-s2.0-84929643058</t>
         </is>
+      </c>
+      <c r="BT30" t="n">
+        <v>1531</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -7610,6 +7794,12 @@
           <t>2-s2.0-84949457217</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>296</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7829,6 +8019,12 @@
           <t>2-s2.0-84949537051</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>2117</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8056,6 +8252,12 @@
           <t>2-s2.0-84949539253</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>975</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8281,6 +8483,12 @@
           <t>2-s2.0-84949430965</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>920</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8504,6 +8712,12 @@
           <t>2-s2.0-84949465039</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>881</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8720,6 +8934,12 @@
         <is>
           <t>2-s2.0-84949535707</t>
         </is>
+      </c>
+      <c r="BT36" t="n">
+        <v>771</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -8934,6 +9154,12 @@
           <t>2-s2.0-84938519672</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>1887</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9157,6 +9383,12 @@
           <t>2-s2.0-84938508006</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>1517</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9378,6 +9610,12 @@
           <t>2-s2.0-84987735322</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>3019</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9589,6 +9827,12 @@
           <t>2-s2.0-84937028712</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>4874</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9802,6 +10046,12 @@
           <t>2-s2.0-84957035489</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>660</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10023,6 +10273,12 @@
           <t>2-s2.0-84957040114</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>1217</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -10238,6 +10494,12 @@
           <t>2-s2.0-84937010426</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>1374</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10453,6 +10715,12 @@
           <t>2-s2.0-84937573006</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>761</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10670,6 +10938,12 @@
           <t>2-s2.0-84937842773</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>942</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10885,6 +11159,12 @@
           <t>2-s2.0-84937826691</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>1027</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -11100,6 +11380,12 @@
           <t>2-s2.0-84937925003</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>2198</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -11313,6 +11599,12 @@
           <t>2-s2.0-84937855751</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>1093</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11528,6 +11820,12 @@
           <t>2-s2.0-84938095424</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>472</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11733,6 +12031,12 @@
           <t>2-s2.0-84938060800</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>1642</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11942,6 +12246,12 @@
           <t>2-s2.0-84938057962</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>734</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -12151,6 +12461,12 @@
           <t>2-s2.0-84951994198</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>2016</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -12364,6 +12680,12 @@
           <t>2-s2.0-84939151067</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>882</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12571,6 +12893,12 @@
           <t>2-s2.0-84939482581</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>943</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12794,6 +13122,12 @@
           <t>2-s2.0-84939522893</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>4718</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -13005,6 +13339,12 @@
           <t>2-s2.0-84938846420</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>1912</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -13218,6 +13558,12 @@
           <t>2-s2.0-84939130124</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>1208</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -13427,6 +13773,12 @@
           <t>2-s2.0-84939628215</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>890</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13646,6 +13998,12 @@
           <t>2-s2.0-84939635465</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>1866</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13865,6 +14223,12 @@
           <t>2-s2.0-84939636922</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>5573</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -14082,6 +14446,12 @@
           <t>2-s2.0-84940040851</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>572</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -14303,6 +14673,12 @@
           <t>2-s2.0-84940380116</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>1052</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -14524,6 +14900,12 @@
           <t>2-s2.0-84941274933</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>855</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14729,6 +15111,12 @@
           <t>2-s2.0-84941275149</t>
         </is>
       </c>
+      <c r="BT64" t="n">
+        <v>1355</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14944,6 +15332,12 @@
           <t>2-s2.0-84941279827</t>
         </is>
       </c>
+      <c r="BT65" t="n">
+        <v>797</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -15157,6 +15551,12 @@
           <t>2-s2.0-84940479719</t>
         </is>
       </c>
+      <c r="BT66" t="n">
+        <v>2165</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -15370,6 +15770,12 @@
           <t>2-s2.0-84940526535</t>
         </is>
       </c>
+      <c r="BT67" t="n">
+        <v>1074</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15589,6 +15995,12 @@
           <t>2-s2.0-84941049663</t>
         </is>
       </c>
+      <c r="BT68" t="n">
+        <v>1156</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15802,6 +16214,12 @@
           <t>2-s2.0-84941132397</t>
         </is>
       </c>
+      <c r="BT69" t="n">
+        <v>724</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -16007,6 +16425,12 @@
           <t>2-s2.0-84941271224</t>
         </is>
       </c>
+      <c r="BT70" t="n">
+        <v>486</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -16222,6 +16646,12 @@
           <t>2-s2.0-84941280646</t>
         </is>
       </c>
+      <c r="BT71" t="n">
+        <v>764</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -16445,6 +16875,12 @@
           <t>2-s2.0-84942814431</t>
         </is>
       </c>
+      <c r="BT72" t="n">
+        <v>738</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16662,6 +17098,12 @@
           <t>2-s2.0-84942786206</t>
         </is>
       </c>
+      <c r="BT73" t="n">
+        <v>1179</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16879,6 +17321,12 @@
           <t>2-s2.0-84942746459</t>
         </is>
       </c>
+      <c r="BT74" t="n">
+        <v>1007</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -17102,6 +17550,12 @@
           <t>2-s2.0-84942802062</t>
         </is>
       </c>
+      <c r="BT75" t="n">
+        <v>4390</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -17315,6 +17769,12 @@
           <t>2-s2.0-84942748626</t>
         </is>
       </c>
+      <c r="BT76" t="n">
+        <v>1185</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -17528,6 +17988,12 @@
           <t>2-s2.0-84943264304</t>
         </is>
       </c>
+      <c r="BT77" t="n">
+        <v>1905</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17741,6 +18207,12 @@
           <t>2-s2.0-84943272291</t>
         </is>
       </c>
+      <c r="BT78" t="n">
+        <v>1288</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17954,6 +18426,12 @@
           <t>2-s2.0-84943268818</t>
         </is>
       </c>
+      <c r="BT79" t="n">
+        <v>678</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -18150,6 +18628,12 @@
         <is>
           <t>2-s2.0-84945465979</t>
         </is>
+      </c>
+      <c r="BT80" t="n">
+        <v>267</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -18340,6 +18824,12 @@
           <t>2-s2.0-84945442512</t>
         </is>
       </c>
+      <c r="BT81" t="n">
+        <v>451</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -18537,6 +19027,12 @@
           <t>2-s2.0-84945484226</t>
         </is>
       </c>
+      <c r="BT82" t="n">
+        <v>428</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18749,6 +19245,12 @@
         <is>
           <t>2-s2.0-84949426658</t>
         </is>
+      </c>
+      <c r="BT83" t="n">
+        <v>1933</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="84">
@@ -18961,6 +19463,12 @@
           <t>2-s2.0-84949467596</t>
         </is>
       </c>
+      <c r="BT84" t="n">
+        <v>708</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -19182,6 +19690,12 @@
           <t>2-s2.0-84949450752</t>
         </is>
       </c>
+      <c r="BT85" t="n">
+        <v>1609</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -19391,6 +19905,12 @@
           <t>2-s2.0-84937060525</t>
         </is>
       </c>
+      <c r="BT86" t="n">
+        <v>2016</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -19604,6 +20124,12 @@
           <t>2-s2.0-84937861208</t>
         </is>
       </c>
+      <c r="BT87" t="n">
+        <v>680</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19817,6 +20343,12 @@
           <t>2-s2.0-84939133714</t>
         </is>
       </c>
+      <c r="BT88" t="n">
+        <v>1702</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -20030,6 +20562,12 @@
           <t>2-s2.0-84940053977</t>
         </is>
       </c>
+      <c r="BT89" t="n">
+        <v>588</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -20253,6 +20791,12 @@
           <t>2-s2.0-84940514834</t>
         </is>
       </c>
+      <c r="BT90" t="n">
+        <v>3199</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -20474,6 +21018,12 @@
           <t>2-s2.0-84941086368</t>
         </is>
       </c>
+      <c r="BT91" t="n">
+        <v>1138</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -20695,6 +21245,12 @@
           <t>2-s2.0-84943577344</t>
         </is>
       </c>
+      <c r="BT92" t="n">
+        <v>619</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -20914,6 +21470,12 @@
           <t>2-s2.0-84943543438</t>
         </is>
       </c>
+      <c r="BT93" t="n">
+        <v>1055</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -21114,6 +21676,12 @@
         <is>
           <t>2-s2.0-84945440594</t>
         </is>
+      </c>
+      <c r="BT94" t="n">
+        <v>431</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -21322,6 +21890,12 @@
           <t>2-s2.0-84943801890</t>
         </is>
       </c>
+      <c r="BT95" t="n">
+        <v>1938</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -21557,6 +22131,12 @@
           <t>2-s2.0-84943818716</t>
         </is>
       </c>
+      <c r="BT96" t="n">
+        <v>9782</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -21780,6 +22360,12 @@
           <t>2-s2.0-84943765389</t>
         </is>
       </c>
+      <c r="BT97" t="n">
+        <v>2747</v>
+      </c>
+      <c r="BU97" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -22019,6 +22605,12 @@
           <t>2-s2.0-84943760317</t>
         </is>
       </c>
+      <c r="BT98" t="n">
+        <v>10743</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -22250,6 +22842,12 @@
           <t>2-s2.0-84943806567</t>
         </is>
       </c>
+      <c r="BT99" t="n">
+        <v>11738</v>
+      </c>
+      <c r="BU99" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -22477,6 +23075,12 @@
           <t>2-s2.0-84943817993</t>
         </is>
       </c>
+      <c r="BT100" t="n">
+        <v>26192</v>
+      </c>
+      <c r="BU100" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -22716,6 +23320,12 @@
           <t>2-s2.0-84943742408</t>
         </is>
       </c>
+      <c r="BT101" t="n">
+        <v>12183</v>
+      </c>
+      <c r="BU101" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -22955,6 +23565,12 @@
           <t>2-s2.0-84943758230</t>
         </is>
       </c>
+      <c r="BT102" t="n">
+        <v>32644</v>
+      </c>
+      <c r="BU102" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -23194,6 +23810,12 @@
           <t>2-s2.0-84943754384</t>
         </is>
       </c>
+      <c r="BT103" t="n">
+        <v>5522</v>
+      </c>
+      <c r="BU103" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -23433,6 +24055,12 @@
           <t>2-s2.0-84943810516</t>
         </is>
       </c>
+      <c r="BT104" t="n">
+        <v>17037</v>
+      </c>
+      <c r="BU104" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -23664,6 +24292,12 @@
           <t>2-s2.0-84943786572</t>
         </is>
       </c>
+      <c r="BT105" t="n">
+        <v>17542</v>
+      </c>
+      <c r="BU105" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -23895,6 +24529,12 @@
           <t>2-s2.0-84943774840</t>
         </is>
       </c>
+      <c r="BT106" t="n">
+        <v>13339</v>
+      </c>
+      <c r="BU106" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -24102,6 +24742,12 @@
           <t>2-s2.0-84934896806</t>
         </is>
       </c>
+      <c r="BT107" t="n">
+        <v>2168</v>
+      </c>
+      <c r="BU107" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -24315,6 +24961,12 @@
           <t>2-s2.0-84934994255</t>
         </is>
       </c>
+      <c r="BT108" t="n">
+        <v>1094</v>
+      </c>
+      <c r="BU108" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -24532,6 +25184,12 @@
           <t>2-s2.0-84935030301</t>
         </is>
       </c>
+      <c r="BT109" t="n">
+        <v>990</v>
+      </c>
+      <c r="BU109" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -24747,6 +25405,12 @@
           <t>2-s2.0-84935016350</t>
         </is>
       </c>
+      <c r="BT110" t="n">
+        <v>2151</v>
+      </c>
+      <c r="BU110" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -24968,6 +25632,12 @@
           <t>2-s2.0-84934972693</t>
         </is>
       </c>
+      <c r="BT111" t="n">
+        <v>3084</v>
+      </c>
+      <c r="BU111" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -25185,6 +25855,12 @@
           <t>2-s2.0-84932610929</t>
         </is>
       </c>
+      <c r="BT112" t="n">
+        <v>896</v>
+      </c>
+      <c r="BU112" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -25400,6 +26076,12 @@
           <t>2-s2.0-84933564842</t>
         </is>
       </c>
+      <c r="BT113" t="n">
+        <v>2026</v>
+      </c>
+      <c r="BU113" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -25623,6 +26305,12 @@
           <t>2-s2.0-84933497504</t>
         </is>
       </c>
+      <c r="BT114" t="n">
+        <v>1095</v>
+      </c>
+      <c r="BU114" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -25846,6 +26534,12 @@
           <t>2-s2.0-84934294284</t>
         </is>
       </c>
+      <c r="BT115" t="n">
+        <v>1789</v>
+      </c>
+      <c r="BU115" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -26055,6 +26749,12 @@
           <t>2-s2.0-84947280197</t>
         </is>
       </c>
+      <c r="BT116" t="n">
+        <v>938</v>
+      </c>
+      <c r="BU116" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -26278,6 +26978,12 @@
           <t>2-s2.0-84934284141</t>
         </is>
       </c>
+      <c r="BT117" t="n">
+        <v>699</v>
+      </c>
+      <c r="BU117" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -26483,6 +27189,12 @@
           <t>2-s2.0-84934275135</t>
         </is>
       </c>
+      <c r="BT118" t="n">
+        <v>1396</v>
+      </c>
+      <c r="BU118" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -26696,6 +27408,12 @@
           <t>2-s2.0-84934294336</t>
         </is>
       </c>
+      <c r="BT119" t="n">
+        <v>546</v>
+      </c>
+      <c r="BU119" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -26915,6 +27633,12 @@
           <t>2-s2.0-84934276195</t>
         </is>
       </c>
+      <c r="BT120" t="n">
+        <v>2336</v>
+      </c>
+      <c r="BU120" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -27132,6 +27856,12 @@
           <t>2-s2.0-84935426217</t>
         </is>
       </c>
+      <c r="BT121" t="n">
+        <v>635</v>
+      </c>
+      <c r="BU121" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -27347,6 +28077,12 @@
           <t>2-s2.0-84936762326</t>
         </is>
       </c>
+      <c r="BT122" t="n">
+        <v>1279</v>
+      </c>
+      <c r="BU122" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -27570,6 +28306,12 @@
           <t>2-s2.0-84930938284</t>
         </is>
       </c>
+      <c r="BT123" t="n">
+        <v>4467</v>
+      </c>
+      <c r="BU123" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -27789,6 +28531,12 @@
           <t>2-s2.0-84934920089</t>
         </is>
       </c>
+      <c r="BT124" t="n">
+        <v>1822</v>
+      </c>
+      <c r="BU124" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -28004,6 +28752,12 @@
           <t>2-s2.0-84934271648</t>
         </is>
       </c>
+      <c r="BT125" t="n">
+        <v>3665</v>
+      </c>
+      <c r="BU125" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -28217,6 +28971,12 @@
           <t>2-s2.0-84929431524</t>
         </is>
       </c>
+      <c r="BT126" t="n">
+        <v>1480</v>
+      </c>
+      <c r="BU126" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -28438,6 +29198,12 @@
           <t>2-s2.0-84930207525</t>
         </is>
       </c>
+      <c r="BT127" t="n">
+        <v>1679</v>
+      </c>
+      <c r="BU127" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -28659,6 +29425,12 @@
           <t>2-s2.0-84930673049</t>
         </is>
       </c>
+      <c r="BT128" t="n">
+        <v>1690</v>
+      </c>
+      <c r="BU128" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -28878,6 +29650,12 @@
           <t>2-s2.0-84930646473</t>
         </is>
       </c>
+      <c r="BT129" t="n">
+        <v>802</v>
+      </c>
+      <c r="BU129" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -29093,6 +29871,12 @@
           <t>2-s2.0-84937778249</t>
         </is>
       </c>
+      <c r="BT130" t="n">
+        <v>891</v>
+      </c>
+      <c r="BU130" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -29316,6 +30100,12 @@
           <t>2-s2.0-84929321743</t>
         </is>
       </c>
+      <c r="BT131" t="n">
+        <v>607</v>
+      </c>
+      <c r="BU131" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -29539,6 +30329,12 @@
           <t>2-s2.0-84930671338</t>
         </is>
       </c>
+      <c r="BT132" t="n">
+        <v>1100</v>
+      </c>
+      <c r="BU132" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -29762,6 +30558,12 @@
           <t>2-s2.0-84928788155</t>
         </is>
       </c>
+      <c r="BT133" t="n">
+        <v>2241</v>
+      </c>
+      <c r="BU133" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -29985,6 +30787,12 @@
           <t>2-s2.0-84929309035</t>
         </is>
       </c>
+      <c r="BT134" t="n">
+        <v>2435</v>
+      </c>
+      <c r="BU134" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -30208,6 +31016,12 @@
           <t>2-s2.0-84928794943</t>
         </is>
       </c>
+      <c r="BT135" t="n">
+        <v>749</v>
+      </c>
+      <c r="BU135" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -30423,6 +31237,12 @@
           <t>2-s2.0-84928901627</t>
         </is>
       </c>
+      <c r="BT136" t="n">
+        <v>1395</v>
+      </c>
+      <c r="BU136" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -30650,6 +31470,12 @@
           <t>2-s2.0-84928892071</t>
         </is>
       </c>
+      <c r="BT137" t="n">
+        <v>18660</v>
+      </c>
+      <c r="BU137" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -30869,6 +31695,12 @@
           <t>2-s2.0-84929223669</t>
         </is>
       </c>
+      <c r="BT138" t="n">
+        <v>2500</v>
+      </c>
+      <c r="BU138" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -31092,6 +31924,12 @@
           <t>2-s2.0-84929312470</t>
         </is>
       </c>
+      <c r="BT139" t="n">
+        <v>1515</v>
+      </c>
+      <c r="BU139" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -31303,6 +32141,12 @@
           <t>2-s2.0-84926343561</t>
         </is>
       </c>
+      <c r="BT140" t="n">
+        <v>887</v>
+      </c>
+      <c r="BU140" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -31512,6 +32356,12 @@
           <t>2-s2.0-84927168371</t>
         </is>
       </c>
+      <c r="BT141" t="n">
+        <v>1072</v>
+      </c>
+      <c r="BU141" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -31731,6 +32581,12 @@
           <t>2-s2.0-84927602364</t>
         </is>
       </c>
+      <c r="BT142" t="n">
+        <v>681</v>
+      </c>
+      <c r="BU142" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -31948,6 +32804,12 @@
           <t>2-s2.0-84927622581</t>
         </is>
       </c>
+      <c r="BT143" t="n">
+        <v>716</v>
+      </c>
+      <c r="BU143" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -32167,6 +33029,12 @@
           <t>2-s2.0-84927739945</t>
         </is>
       </c>
+      <c r="BT144" t="n">
+        <v>2185</v>
+      </c>
+      <c r="BU144" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -32372,6 +33240,12 @@
           <t>2-s2.0-84928266745</t>
         </is>
       </c>
+      <c r="BT145" t="n">
+        <v>1419</v>
+      </c>
+      <c r="BU145" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -32593,6 +33467,12 @@
           <t>2-s2.0-84928345689</t>
         </is>
       </c>
+      <c r="BT146" t="n">
+        <v>1788</v>
+      </c>
+      <c r="BU146" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -32810,6 +33690,12 @@
           <t>2-s2.0-84926511344</t>
         </is>
       </c>
+      <c r="BT147" t="n">
+        <v>3042</v>
+      </c>
+      <c r="BU147" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -33015,6 +33901,12 @@
           <t>2-s2.0-84927605198</t>
         </is>
       </c>
+      <c r="BT148" t="n">
+        <v>1058</v>
+      </c>
+      <c r="BU148" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -33232,6 +34124,12 @@
           <t>2-s2.0-84925172488</t>
         </is>
       </c>
+      <c r="BT149" t="n">
+        <v>2248</v>
+      </c>
+      <c r="BU149" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -33453,6 +34351,12 @@
           <t>2-s2.0-84925674707</t>
         </is>
       </c>
+      <c r="BT150" t="n">
+        <v>2339</v>
+      </c>
+      <c r="BU150" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -33660,6 +34564,12 @@
           <t>2-s2.0-84923923611</t>
         </is>
       </c>
+      <c r="BT151" t="n">
+        <v>1941</v>
+      </c>
+      <c r="BU151" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -33883,6 +34793,12 @@
           <t>2-s2.0-84925016034</t>
         </is>
       </c>
+      <c r="BT152" t="n">
+        <v>986</v>
+      </c>
+      <c r="BU152" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -34100,6 +35016,12 @@
           <t>2-s2.0-84925241990</t>
         </is>
       </c>
+      <c r="BT153" t="n">
+        <v>853</v>
+      </c>
+      <c r="BU153" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -34323,6 +35245,12 @@
           <t>2-s2.0-84925987045</t>
         </is>
       </c>
+      <c r="BT154" t="n">
+        <v>879</v>
+      </c>
+      <c r="BU154" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -34544,6 +35472,12 @@
           <t>2-s2.0-84923083335</t>
         </is>
       </c>
+      <c r="BT155" t="n">
+        <v>2285</v>
+      </c>
+      <c r="BU155" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -34767,6 +35701,12 @@
           <t>2-s2.0-84923238740</t>
         </is>
       </c>
+      <c r="BT156" t="n">
+        <v>1604</v>
+      </c>
+      <c r="BU156" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -34982,6 +35922,12 @@
           <t>2-s2.0-84923675813</t>
         </is>
       </c>
+      <c r="BT157" t="n">
+        <v>2106</v>
+      </c>
+      <c r="BU157" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -35205,6 +36151,12 @@
           <t>2-s2.0-84923902153</t>
         </is>
       </c>
+      <c r="BT158" t="n">
+        <v>1730</v>
+      </c>
+      <c r="BU158" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -35418,6 +36370,12 @@
           <t>2-s2.0-84923871206</t>
         </is>
       </c>
+      <c r="BT159" t="n">
+        <v>1209</v>
+      </c>
+      <c r="BU159" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -35639,6 +36597,12 @@
           <t>2-s2.0-84924584876</t>
         </is>
       </c>
+      <c r="BT160" t="n">
+        <v>1436</v>
+      </c>
+      <c r="BU160" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -35861,6 +36825,12 @@
         <is>
           <t>2-s2.0-84924565988</t>
         </is>
+      </c>
+      <c r="BT161" t="n">
+        <v>1453</v>
+      </c>
+      <c r="BU161" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="162">
@@ -36055,6 +37025,12 @@
           <t>2-s2.0-84939942668</t>
         </is>
       </c>
+      <c r="BT162" t="n">
+        <v>582</v>
+      </c>
+      <c r="BU162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -36252,6 +37228,12 @@
           <t>2-s2.0-84925460864</t>
         </is>
       </c>
+      <c r="BT163" t="n">
+        <v>513</v>
+      </c>
+      <c r="BU163" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -36467,6 +37449,12 @@
           <t>2-s2.0-84925490514</t>
         </is>
       </c>
+      <c r="BT164" t="n">
+        <v>839</v>
+      </c>
+      <c r="BU164" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -36683,6 +37671,12 @@
         <is>
           <t>2-s2.0-84925086104</t>
         </is>
+      </c>
+      <c r="BT165" t="n">
+        <v>1137</v>
+      </c>
+      <c r="BU165" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="166">
@@ -36889,6 +37883,12 @@
           <t>2-s2.0-84925292304</t>
         </is>
       </c>
+      <c r="BT166" t="n">
+        <v>1604</v>
+      </c>
+      <c r="BU166" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -37113,6 +38113,12 @@
         <is>
           <t>2-s2.0-84925071410</t>
         </is>
+      </c>
+      <c r="BT167" t="n">
+        <v>811</v>
+      </c>
+      <c r="BU167" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="168">
@@ -37333,6 +38339,12 @@
           <t>2-s2.0-84925290288</t>
         </is>
       </c>
+      <c r="BT168" t="n">
+        <v>1774</v>
+      </c>
+      <c r="BU168" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -37553,6 +38565,12 @@
         <is>
           <t>2-s2.0-84925500196</t>
         </is>
+      </c>
+      <c r="BT169" t="n">
+        <v>2144</v>
+      </c>
+      <c r="BU169" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="170">
@@ -37777,6 +38795,12 @@
           <t>2-s2.0-84925289486</t>
         </is>
       </c>
+      <c r="BT170" t="n">
+        <v>883</v>
+      </c>
+      <c r="BU170" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -37998,6 +39022,12 @@
           <t>2-s2.0-85027920726</t>
         </is>
       </c>
+      <c r="BT171" t="n">
+        <v>2921</v>
+      </c>
+      <c r="BU171" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -38222,6 +39252,12 @@
         <is>
           <t>2-s2.0-84925461024</t>
         </is>
+      </c>
+      <c r="BT172" t="n">
+        <v>1703</v>
+      </c>
+      <c r="BU172" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="173">
@@ -38430,6 +39466,12 @@
           <t>2-s2.0-84925291021</t>
         </is>
       </c>
+      <c r="BT173" t="n">
+        <v>2114</v>
+      </c>
+      <c r="BU173" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -38647,6 +39689,12 @@
           <t>2-s2.0-85027934168</t>
         </is>
       </c>
+      <c r="BT174" t="n">
+        <v>1227</v>
+      </c>
+      <c r="BU174" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -38868,6 +39916,12 @@
           <t>2-s2.0-84925290285</t>
         </is>
       </c>
+      <c r="BT175" t="n">
+        <v>1214</v>
+      </c>
+      <c r="BU175" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -39081,6 +40135,12 @@
           <t>2-s2.0-84925290554</t>
         </is>
       </c>
+      <c r="BT176" t="n">
+        <v>1124</v>
+      </c>
+      <c r="BU176" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -39302,6 +40362,12 @@
           <t>2-s2.0-84925289379</t>
         </is>
       </c>
+      <c r="BT177" t="n">
+        <v>1315</v>
+      </c>
+      <c r="BU177" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -39519,6 +40585,12 @@
           <t>2-s2.0-84925535878</t>
         </is>
       </c>
+      <c r="BT178" t="n">
+        <v>1749</v>
+      </c>
+      <c r="BU178" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -39740,6 +40812,12 @@
           <t>2-s2.0-84925219772</t>
         </is>
       </c>
+      <c r="BT179" t="n">
+        <v>1307</v>
+      </c>
+      <c r="BU179" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -39963,6 +41041,12 @@
           <t>2-s2.0-84922382511</t>
         </is>
       </c>
+      <c r="BT180" t="n">
+        <v>1710</v>
+      </c>
+      <c r="BU180" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -40186,6 +41270,12 @@
           <t>2-s2.0-84922455683</t>
         </is>
       </c>
+      <c r="BT181" t="n">
+        <v>1197</v>
+      </c>
+      <c r="BU181" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -40399,6 +41489,12 @@
           <t>2-s2.0-84922962808</t>
         </is>
       </c>
+      <c r="BT182" t="n">
+        <v>902</v>
+      </c>
+      <c r="BU182" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -40612,6 +41708,12 @@
           <t>2-s2.0-84922982560</t>
         </is>
       </c>
+      <c r="BT183" t="n">
+        <v>887</v>
+      </c>
+      <c r="BU183" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -40835,6 +41937,12 @@
           <t>2-s2.0-84922470472</t>
         </is>
       </c>
+      <c r="BT184" t="n">
+        <v>839</v>
+      </c>
+      <c r="BU184" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -41048,6 +42156,12 @@
           <t>2-s2.0-84920935779</t>
         </is>
       </c>
+      <c r="BT185" t="n">
+        <v>1061</v>
+      </c>
+      <c r="BU185" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -41271,6 +42385,12 @@
           <t>2-s2.0-84921305381</t>
         </is>
       </c>
+      <c r="BT186" t="n">
+        <v>771</v>
+      </c>
+      <c r="BU186" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -41480,6 +42600,12 @@
           <t>2-s2.0-84921281021</t>
         </is>
       </c>
+      <c r="BT187" t="n">
+        <v>825</v>
+      </c>
+      <c r="BU187" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -41695,6 +42821,12 @@
           <t>2-s2.0-84921261857</t>
         </is>
       </c>
+      <c r="BT188" t="n">
+        <v>2523</v>
+      </c>
+      <c r="BU188" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -41916,6 +43048,12 @@
           <t>2-s2.0-84921446877</t>
         </is>
       </c>
+      <c r="BT189" t="n">
+        <v>1515</v>
+      </c>
+      <c r="BU189" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -42121,6 +43259,12 @@
           <t>2-s2.0-84921453516</t>
         </is>
       </c>
+      <c r="BT190" t="n">
+        <v>584</v>
+      </c>
+      <c r="BU190" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -42344,6 +43488,12 @@
           <t>2-s2.0-84921644782</t>
         </is>
       </c>
+      <c r="BT191" t="n">
+        <v>711</v>
+      </c>
+      <c r="BU191" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -42559,6 +43709,12 @@
           <t>2-s2.0-84921784886</t>
         </is>
       </c>
+      <c r="BT192" t="n">
+        <v>859</v>
+      </c>
+      <c r="BU192" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -42772,6 +43928,12 @@
           <t>2-s2.0-84921882371</t>
         </is>
       </c>
+      <c r="BT193" t="n">
+        <v>698</v>
+      </c>
+      <c r="BU193" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -42987,6 +44149,12 @@
           <t>2-s2.0-84921873903</t>
         </is>
       </c>
+      <c r="BT194" t="n">
+        <v>3535</v>
+      </c>
+      <c r="BU194" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -43194,6 +44362,12 @@
           <t>2-s2.0-84922023717</t>
         </is>
       </c>
+      <c r="BT195" t="n">
+        <v>1631</v>
+      </c>
+      <c r="BU195" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -43421,6 +44595,12 @@
           <t>2-s2.0-84922357364</t>
         </is>
       </c>
+      <c r="BT196" t="n">
+        <v>762</v>
+      </c>
+      <c r="BU196" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -43642,6 +44822,12 @@
           <t>2-s2.0-84920123139</t>
         </is>
       </c>
+      <c r="BT197" t="n">
+        <v>1525</v>
+      </c>
+      <c r="BU197" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -43865,6 +45051,12 @@
           <t>2-s2.0-84920183029</t>
         </is>
       </c>
+      <c r="BT198" t="n">
+        <v>1611</v>
+      </c>
+      <c r="BU198" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -44070,6 +45262,12 @@
           <t>2-s2.0-84920972614</t>
         </is>
       </c>
+      <c r="BT199" t="n">
+        <v>983</v>
+      </c>
+      <c r="BU199" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -44289,6 +45487,12 @@
           <t>2-s2.0-84920895395</t>
         </is>
       </c>
+      <c r="BT200" t="n">
+        <v>1853</v>
+      </c>
+      <c r="BU200" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -44500,6 +45704,12 @@
           <t>2-s2.0-84920934724</t>
         </is>
       </c>
+      <c r="BT201" t="n">
+        <v>789</v>
+      </c>
+      <c r="BU201" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -44705,6 +45915,12 @@
           <t>2-s2.0-84920917758</t>
         </is>
       </c>
+      <c r="BT202" t="n">
+        <v>1198</v>
+      </c>
+      <c r="BU202" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -44920,6 +46136,12 @@
           <t>2-s2.0-84920911964</t>
         </is>
       </c>
+      <c r="BT203" t="n">
+        <v>1106</v>
+      </c>
+      <c r="BU203" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -45139,6 +46361,12 @@
           <t>2-s2.0-84920877118</t>
         </is>
       </c>
+      <c r="BT204" t="n">
+        <v>1056</v>
+      </c>
+      <c r="BU204" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -45352,6 +46580,12 @@
           <t>2-s2.0-84920913826</t>
         </is>
       </c>
+      <c r="BT205" t="n">
+        <v>673</v>
+      </c>
+      <c r="BU205" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -45569,6 +46803,12 @@
           <t>2-s2.0-84920933888</t>
         </is>
       </c>
+      <c r="BT206" t="n">
+        <v>1506</v>
+      </c>
+      <c r="BU206" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -45790,6 +47030,12 @@
           <t>2-s2.0-84920885252</t>
         </is>
       </c>
+      <c r="BT207" t="n">
+        <v>5300</v>
+      </c>
+      <c r="BU207" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -46015,6 +47261,12 @@
           <t>2-s2.0-84921369408</t>
         </is>
       </c>
+      <c r="BT208" t="n">
+        <v>820</v>
+      </c>
+      <c r="BU208" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -46228,6 +47480,12 @@
           <t>2-s2.0-84922066736</t>
         </is>
       </c>
+      <c r="BT209" t="n">
+        <v>857</v>
+      </c>
+      <c r="BU209" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -46453,6 +47711,12 @@
           <t>2-s2.0-84920122191</t>
         </is>
       </c>
+      <c r="BT210" t="n">
+        <v>2326</v>
+      </c>
+      <c r="BU210" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -46666,6 +47930,12 @@
           <t>2-s2.0-84920135992</t>
         </is>
       </c>
+      <c r="BT211" t="n">
+        <v>933</v>
+      </c>
+      <c r="BU211" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -46879,6 +48149,12 @@
           <t>2-s2.0-84920986744</t>
         </is>
       </c>
+      <c r="BT212" t="n">
+        <v>794</v>
+      </c>
+      <c r="BU212" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -47102,6 +48378,12 @@
           <t>2-s2.0-84920913831</t>
         </is>
       </c>
+      <c r="BT213" t="n">
+        <v>3395</v>
+      </c>
+      <c r="BU213" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -47315,6 +48597,12 @@
           <t>2-s2.0-84920885254</t>
         </is>
       </c>
+      <c r="BT214" t="n">
+        <v>1711</v>
+      </c>
+      <c r="BU214" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -47528,6 +48816,12 @@
           <t>2-s2.0-84913536449</t>
         </is>
       </c>
+      <c r="BT215" t="n">
+        <v>1399</v>
+      </c>
+      <c r="BU215" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -47739,6 +49033,12 @@
           <t>2-s2.0-84918798937</t>
         </is>
       </c>
+      <c r="BT216" t="n">
+        <v>1759</v>
+      </c>
+      <c r="BU216" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -47962,6 +49262,12 @@
           <t>2-s2.0-84920063117</t>
         </is>
       </c>
+      <c r="BT217" t="n">
+        <v>761</v>
+      </c>
+      <c r="BU217" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -48177,6 +49483,12 @@
           <t>2-s2.0-84916899427</t>
         </is>
       </c>
+      <c r="BT218" t="n">
+        <v>1163</v>
+      </c>
+      <c r="BU218" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -48398,6 +49710,12 @@
           <t>2-s2.0-84916912016</t>
         </is>
       </c>
+      <c r="BT219" t="n">
+        <v>493</v>
+      </c>
+      <c r="BU219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -48621,6 +49939,12 @@
           <t>2-s2.0-84949117807</t>
         </is>
       </c>
+      <c r="BT220" t="n">
+        <v>2292</v>
+      </c>
+      <c r="BU220" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -48834,6 +50158,12 @@
           <t>2-s2.0-84949146815</t>
         </is>
       </c>
+      <c r="BT221" t="n">
+        <v>2226</v>
+      </c>
+      <c r="BU221" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -49057,6 +50387,12 @@
           <t>2-s2.0-84918534203</t>
         </is>
       </c>
+      <c r="BT222" t="n">
+        <v>811</v>
+      </c>
+      <c r="BU222" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -49262,6 +50598,12 @@
           <t>2-s2.0-84918545062</t>
         </is>
       </c>
+      <c r="BT223" t="n">
+        <v>928</v>
+      </c>
+      <c r="BU223" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -49483,6 +50825,12 @@
           <t>2-s2.0-84918582988</t>
         </is>
       </c>
+      <c r="BT224" t="n">
+        <v>2028</v>
+      </c>
+      <c r="BU224" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -49698,6 +51046,12 @@
           <t>2-s2.0-84918576801</t>
         </is>
       </c>
+      <c r="BT225" t="n">
+        <v>1336</v>
+      </c>
+      <c r="BU225" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -49919,6 +51273,12 @@
           <t>2-s2.0-84918567300</t>
         </is>
       </c>
+      <c r="BT226" t="n">
+        <v>364</v>
+      </c>
+      <c r="BU226" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -50124,6 +51484,12 @@
           <t>2-s2.0-84919360969</t>
         </is>
       </c>
+      <c r="BT227" t="n">
+        <v>2656</v>
+      </c>
+      <c r="BU227" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -50337,6 +51703,12 @@
           <t>2-s2.0-84919372309</t>
         </is>
       </c>
+      <c r="BT228" t="n">
+        <v>2004</v>
+      </c>
+      <c r="BU228" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -50558,6 +51930,12 @@
           <t>2-s2.0-84918817511</t>
         </is>
       </c>
+      <c r="BT229" t="n">
+        <v>1060</v>
+      </c>
+      <c r="BU229" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -50773,6 +52151,12 @@
           <t>2-s2.0-84949122800</t>
         </is>
       </c>
+      <c r="BT230" t="n">
+        <v>506</v>
+      </c>
+      <c r="BU230" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -50994,6 +52378,12 @@
           <t>2-s2.0-84909952177</t>
         </is>
       </c>
+      <c r="BT231" t="n">
+        <v>1936</v>
+      </c>
+      <c r="BU231" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -51199,6 +52589,12 @@
           <t>2-s2.0-84909959946</t>
         </is>
       </c>
+      <c r="BT232" t="n">
+        <v>1265</v>
+      </c>
+      <c r="BU232" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -51412,6 +52808,12 @@
           <t>2-s2.0-84909619280</t>
         </is>
       </c>
+      <c r="BT233" t="n">
+        <v>2778</v>
+      </c>
+      <c r="BU233" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -51627,6 +53029,12 @@
           <t>2-s2.0-84910656800</t>
         </is>
       </c>
+      <c r="BT234" t="n">
+        <v>2823</v>
+      </c>
+      <c r="BU234" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -51850,6 +53258,12 @@
           <t>2-s2.0-84910631388</t>
         </is>
       </c>
+      <c r="BT235" t="n">
+        <v>923</v>
+      </c>
+      <c r="BU235" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -52053,6 +53467,12 @@
           <t>2-s2.0-84911408741</t>
         </is>
       </c>
+      <c r="BT236" t="n">
+        <v>1092</v>
+      </c>
+      <c r="BU236" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -52268,6 +53688,12 @@
           <t>2-s2.0-84911410258</t>
         </is>
       </c>
+      <c r="BT237" t="n">
+        <v>722</v>
+      </c>
+      <c r="BU237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -52487,6 +53913,12 @@
           <t>2-s2.0-84911398856</t>
         </is>
       </c>
+      <c r="BT238" t="n">
+        <v>6526</v>
+      </c>
+      <c r="BU238" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -52710,6 +54142,12 @@
           <t>2-s2.0-84911369786</t>
         </is>
       </c>
+      <c r="BT239" t="n">
+        <v>5429</v>
+      </c>
+      <c r="BU239" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -52915,6 +54353,12 @@
           <t>2-s2.0-84912081184</t>
         </is>
       </c>
+      <c r="BT240" t="n">
+        <v>2306</v>
+      </c>
+      <c r="BU240" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -53127,6 +54571,12 @@
         <is>
           <t>2-s2.0-84911947243</t>
         </is>
+      </c>
+      <c r="BT241" t="n">
+        <v>710</v>
+      </c>
+      <c r="BU241" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="242">
@@ -53333,6 +54783,12 @@
           <t>2-s2.0-84914180857</t>
         </is>
       </c>
+      <c r="BT242" t="n">
+        <v>1598</v>
+      </c>
+      <c r="BU242" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -53556,6 +55012,12 @@
           <t>2-s2.0-84911949555</t>
         </is>
       </c>
+      <c r="BT243" t="n">
+        <v>2222</v>
+      </c>
+      <c r="BU243" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -53769,6 +55231,12 @@
           <t>2-s2.0-84914171560</t>
         </is>
       </c>
+      <c r="BT244" t="n">
+        <v>2665</v>
+      </c>
+      <c r="BU244" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -53988,6 +55456,12 @@
           <t>2-s2.0-84914134415</t>
         </is>
       </c>
+      <c r="BT245" t="n">
+        <v>1307</v>
+      </c>
+      <c r="BU245" t="n">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
